--- a/Case/case1.xlsx
+++ b/Case/case1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1044,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="N2" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1597993515666}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1598878492330}</t>
         </is>
       </c>
     </row>
@@ -1264,13 +1264,13 @@
       </c>
       <c r="N3" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1597993516350}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1598878502005}</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" tooltip="http://www.imooc.com/api/updateversion" display="api3/getbanneradvertver2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" tooltip="http://www.imooc.com/api/updateversion" display="api3/getbanneradvertver2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
